--- a/Out/OPCIONES PARA IIN1 - 1.xlsx
+++ b/Out/OPCIONES PARA IIN1 - 1.xlsx
@@ -476,18 +476,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -496,18 +492,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -516,18 +508,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,7 +527,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -548,18 +540,14 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,18 +556,14 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -588,17 +572,9 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -608,17 +584,9 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -627,27 +595,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -655,27 +623,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -683,27 +651,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -711,27 +679,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -739,17 +707,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -759,17 +719,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -779,17 +731,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -799,17 +743,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -819,9 +755,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -831,9 +775,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -843,9 +795,17 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -855,9 +815,17 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -867,17 +835,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -887,17 +847,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -907,17 +859,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -927,17 +871,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1078,18 +1014,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1098,18 +1030,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1118,18 +1046,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1141,7 +1065,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1149,27 +1077,23 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1177,27 +1101,23 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1205,24 +1125,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1233,24 +1145,16 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1309,16 +1213,24 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1329,16 +1241,24 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1349,16 +1269,24 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1369,16 +1297,24 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1389,17 +1325,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -1409,17 +1337,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -1429,17 +1349,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -1449,17 +1361,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -1469,17 +1373,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -1489,17 +1385,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -1509,17 +1397,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -1529,17 +1409,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1680,18 +1552,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1700,18 +1568,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1720,18 +1584,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1743,7 +1603,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1755,7 +1619,11 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1767,7 +1635,11 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1799,27 +1671,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1827,27 +1699,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1855,27 +1727,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1883,27 +1755,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1911,17 +1783,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -1931,17 +1795,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -1951,17 +1807,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -1971,17 +1819,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -1991,17 +1831,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -2011,17 +1843,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -2031,17 +1855,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -2051,17 +1867,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -2073,13 +1881,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2093,13 +1901,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2113,13 +1921,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2133,13 +1941,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2282,18 +2090,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2302,18 +2106,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2322,18 +2122,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2345,7 +2141,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2354,18 +2154,14 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2374,18 +2170,14 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2394,17 +2186,9 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2414,17 +2198,9 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2433,27 +2209,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2461,27 +2237,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2489,27 +2265,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2517,27 +2293,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2593,18 +2369,18 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2613,18 +2389,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2633,18 +2409,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2653,18 +2429,18 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2673,17 +2449,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2693,17 +2461,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -2713,17 +2473,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -2733,17 +2485,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -2884,18 +2628,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2904,18 +2644,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2924,18 +2660,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2947,7 +2679,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2959,7 +2695,11 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2971,7 +2711,11 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3003,27 +2747,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3031,27 +2775,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3059,27 +2803,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3087,27 +2831,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3117,24 +2861,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3145,24 +2881,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3173,24 +2901,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3201,24 +2921,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3275,17 +2987,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3295,17 +2999,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -3315,17 +3011,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -3335,17 +3023,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -3486,18 +3166,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3506,18 +3182,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3526,18 +3198,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3549,7 +3217,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3558,10 +3230,22 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3570,10 +3254,22 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3582,9 +3278,17 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3594,9 +3298,17 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3605,27 +3317,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3633,27 +3345,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3661,27 +3373,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3689,27 +3401,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3718,17 +3430,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3738,17 +3442,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3758,17 +3454,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3778,17 +3466,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3797,17 +3477,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -3817,17 +3489,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -3837,17 +3501,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -3857,17 +3513,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -3877,17 +3525,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3897,17 +3537,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -3917,17 +3549,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -3937,17 +3561,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -4088,18 +3704,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4108,18 +3720,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4128,18 +3736,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4151,7 +3755,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4159,27 +3767,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4187,27 +3783,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4215,26 +3799,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -4243,26 +3811,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -4272,10 +3824,26 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4284,10 +3852,26 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4296,10 +3880,26 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4308,10 +3908,26 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4319,17 +3935,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -4339,17 +3947,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -4359,17 +3959,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -4379,17 +3971,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -4399,17 +3983,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -4419,17 +3995,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -4439,17 +4007,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -4459,17 +4019,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -4479,17 +4031,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -4499,17 +4043,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -4519,17 +4055,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -4539,17 +4067,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -4559,9 +4079,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -4571,9 +4099,17 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -4583,9 +4119,17 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -4595,9 +4139,17 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -4693,7 +4245,11 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4705,7 +4261,11 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4717,7 +4277,11 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4729,7 +4293,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4737,27 +4305,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4765,27 +4321,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4793,26 +4337,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -4821,26 +4349,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -4861,17 +4373,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -4881,17 +4385,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -4901,17 +4397,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -4923,16 +4411,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4943,16 +4439,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4963,16 +4467,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4983,16 +4495,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5081,17 +4601,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -5101,17 +4613,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -5121,17 +4625,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -5141,17 +4637,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -5292,18 +4780,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5312,18 +4796,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5332,18 +4812,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5355,7 +4831,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5363,27 +4843,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5391,27 +4859,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5419,26 +4875,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -5447,26 +4887,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -5525,22 +4949,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -5553,22 +4977,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -5581,22 +5005,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -5609,22 +5033,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -5685,13 +5109,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -5705,13 +5129,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5725,13 +5149,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5745,13 +5169,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5897,7 +5321,11 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5909,7 +5337,11 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5921,7 +5353,11 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5933,7 +5369,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5941,27 +5381,15 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5969,27 +5397,15 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5997,26 +5413,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -6025,26 +5425,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -6065,17 +5449,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -6085,17 +5461,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -6105,17 +5473,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED1]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -6127,22 +5487,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -6155,22 +5515,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -6183,22 +5543,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -6211,22 +5571,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -6238,9 +5598,17 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -6250,9 +5618,17 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -6262,9 +5638,17 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -6274,9 +5658,17 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -6285,17 +5677,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -6305,17 +5689,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -6325,17 +5701,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -6345,17 +5713,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP2]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
